--- a/artfynd/A 38281-2020.xlsx
+++ b/artfynd/A 38281-2020.xlsx
@@ -683,7 +683,7 @@
         <v>112439814</v>
       </c>
       <c r="B2" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>112445546</v>
       </c>
       <c r="B3" t="n">
-        <v>89780</v>
+        <v>89794</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>112446385</v>
       </c>
       <c r="B4" t="n">
-        <v>90988</v>
+        <v>91002</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -999,10 +999,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112446488</v>
+        <v>112445391</v>
       </c>
       <c r="B5" t="n">
-        <v>89503</v>
+        <v>89478</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1011,25 +1011,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>3242</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>749792</v>
+        <v>749781</v>
       </c>
       <c r="R5" t="n">
-        <v>7536087</v>
+        <v>7536174</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1073,9 +1073,19 @@
           <t>2023-10-01</t>
         </is>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>14:51</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>14:51</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1090,22 +1100,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>per-erik mukka</t>
+          <t>Stefan Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>per-erik mukka, Christina Boyd, Stefan Andersson</t>
+          <t>Stefan Andersson, Christina Boyd, per-erik mukka</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112445391</v>
+        <v>112446488</v>
       </c>
       <c r="B6" t="n">
-        <v>89464</v>
+        <v>89517</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1114,25 +1124,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3242</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1143,13 +1153,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>749781</v>
+        <v>749792</v>
       </c>
       <c r="R6" t="n">
-        <v>7536174</v>
+        <v>7536087</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1176,19 +1186,9 @@
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>14:51</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>14:51</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1203,22 +1203,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Stefan Andersson</t>
+          <t>per-erik mukka</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Stefan Andersson, Christina Boyd, per-erik mukka</t>
+          <t>per-erik mukka, Christina Boyd, Stefan Andersson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112444020</v>
+        <v>112443040</v>
       </c>
       <c r="B7" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>749749</v>
+        <v>749867</v>
       </c>
       <c r="R7" t="n">
-        <v>7536225</v>
+        <v>7536102</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1331,10 +1331,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112444216</v>
+        <v>112439340</v>
       </c>
       <c r="B8" t="n">
-        <v>90800</v>
+        <v>95707</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1347,40 +1347,41 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>221941</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Paurankivaravägen, T lm</t>
+          <t>Rautusakaravägen, T lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>749749</v>
+        <v>749873</v>
       </c>
       <c r="R8" t="n">
-        <v>7536225</v>
+        <v>7536596</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1409,7 +1410,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1419,7 +1420,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1447,10 +1448,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112443040</v>
+        <v>112444020</v>
       </c>
       <c r="B9" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,13 +1491,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>749867</v>
+        <v>749749</v>
       </c>
       <c r="R9" t="n">
-        <v>7536102</v>
+        <v>7536225</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1525,7 +1526,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1535,7 +1536,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1563,10 +1564,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112444819</v>
+        <v>112445270</v>
       </c>
       <c r="B10" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1575,25 +1576,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1606,13 +1607,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>749749</v>
+        <v>749804</v>
       </c>
       <c r="R10" t="n">
-        <v>7536225</v>
+        <v>7536188</v>
       </c>
       <c r="S10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1641,7 +1642,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1651,7 +1652,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1679,10 +1680,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112445270</v>
+        <v>112446507</v>
       </c>
       <c r="B11" t="n">
-        <v>90812</v>
+        <v>89478</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1691,25 +1692,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>3242</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1722,13 +1723,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>749804</v>
+        <v>749840</v>
       </c>
       <c r="R11" t="n">
         <v>7536188</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1757,7 +1758,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1767,7 +1768,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1795,10 +1796,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112437506</v>
+        <v>112444819</v>
       </c>
       <c r="B12" t="n">
-        <v>89780</v>
+        <v>90806</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1807,25 +1808,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>65</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1838,13 +1839,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>749872</v>
+        <v>749749</v>
       </c>
       <c r="R12" t="n">
-        <v>7536255</v>
+        <v>7536225</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1873,7 +1874,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1883,7 +1884,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1911,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112446507</v>
+        <v>112437506</v>
       </c>
       <c r="B13" t="n">
-        <v>89464</v>
+        <v>89794</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1923,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3242</v>
+        <v>65</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1954,13 +1955,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>749840</v>
+        <v>749872</v>
       </c>
       <c r="R13" t="n">
-        <v>7536188</v>
+        <v>7536255</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1989,7 +1990,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1999,7 +2000,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2027,10 +2028,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112439340</v>
+        <v>112444216</v>
       </c>
       <c r="B14" t="n">
-        <v>95693</v>
+        <v>90814</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2043,41 +2044,40 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Rautusakaravägen, T lm</t>
+          <t>Paurankivaravägen, T lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>749873</v>
+        <v>749749</v>
       </c>
       <c r="R14" t="n">
-        <v>7536596</v>
+        <v>7536225</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 38281-2020.xlsx
+++ b/artfynd/A 38281-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112445546</v>
+        <v>112446385</v>
       </c>
       <c r="B3" t="n">
-        <v>89794</v>
+        <v>91002</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -795,25 +795,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>2079</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>749804</v>
+        <v>749792</v>
       </c>
       <c r="R3" t="n">
-        <v>7536167</v>
+        <v>7536087</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -857,19 +857,9 @@
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>14:56</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>14:56</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,22 +874,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Stefan Andersson</t>
+          <t>per-erik mukka</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Stefan Andersson, Christina Boyd, per-erik mukka</t>
+          <t>per-erik mukka, Christina Boyd, Stefan Andersson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112446385</v>
+        <v>112445391</v>
       </c>
       <c r="B4" t="n">
-        <v>91002</v>
+        <v>89478</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -912,21 +902,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>3242</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -937,13 +927,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>749792</v>
+        <v>749781</v>
       </c>
       <c r="R4" t="n">
-        <v>7536087</v>
+        <v>7536174</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -970,9 +960,19 @@
           <t>2023-10-01</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>14:51</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>14:51</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -987,22 +987,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>per-erik mukka</t>
+          <t>Stefan Andersson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>per-erik mukka, Christina Boyd, Stefan Andersson</t>
+          <t>Stefan Andersson, Christina Boyd, per-erik mukka</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112445391</v>
+        <v>112445546</v>
       </c>
       <c r="B5" t="n">
-        <v>89478</v>
+        <v>89794</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1011,25 +1011,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3242</v>
+        <v>65</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>749781</v>
+        <v>749804</v>
       </c>
       <c r="R5" t="n">
-        <v>7536174</v>
+        <v>7536167</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:51</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:51</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112443040</v>
+        <v>112444020</v>
       </c>
       <c r="B7" t="n">
         <v>90808</v>
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>749867</v>
+        <v>749749</v>
       </c>
       <c r="R7" t="n">
-        <v>7536102</v>
+        <v>7536225</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1331,10 +1331,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112439340</v>
+        <v>112437506</v>
       </c>
       <c r="B8" t="n">
-        <v>95707</v>
+        <v>89794</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1343,45 +1343,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221941</v>
+        <v>65</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Rautusakaravägen, T lm</t>
+          <t>Paurankivaravägen, T lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>749873</v>
+        <v>749872</v>
       </c>
       <c r="R8" t="n">
-        <v>7536596</v>
+        <v>7536255</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1410,7 +1409,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1420,7 +1419,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1448,10 +1447,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112444020</v>
+        <v>112444216</v>
       </c>
       <c r="B9" t="n">
-        <v>90808</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1460,25 +1459,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1497,7 +1496,7 @@
         <v>7536225</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1526,7 +1525,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1536,7 +1535,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1564,10 +1563,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112445270</v>
+        <v>112441017</v>
       </c>
       <c r="B10" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1576,25 +1575,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1607,13 +1606,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>749804</v>
+        <v>749867</v>
       </c>
       <c r="R10" t="n">
-        <v>7536188</v>
+        <v>7536102</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1642,7 +1641,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1652,7 +1651,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1796,10 +1795,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112444819</v>
+        <v>112439340</v>
       </c>
       <c r="B12" t="n">
-        <v>90806</v>
+        <v>95707</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1808,44 +1807,45 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>221941</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Paurankivaravägen, T lm</t>
+          <t>Rautusakaravägen, T lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>749749</v>
+        <v>749873</v>
       </c>
       <c r="R12" t="n">
-        <v>7536225</v>
+        <v>7536596</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112437506</v>
+        <v>112445270</v>
       </c>
       <c r="B13" t="n">
-        <v>89794</v>
+        <v>90826</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>65</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1955,10 +1955,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>749872</v>
+        <v>749804</v>
       </c>
       <c r="R13" t="n">
-        <v>7536255</v>
+        <v>7536188</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2028,10 +2028,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112444216</v>
+        <v>112444819</v>
       </c>
       <c r="B14" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,25 +2040,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,7 +2077,7 @@
         <v>7536225</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:24</t>
+          <t>14:37</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2141,6 +2141,458 @@
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112533957</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>749876</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7536147</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112533776</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89834</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>658</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>749887</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7536080</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112533794</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89941</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4217</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Blodticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Meruliopsis taxicola</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Pers.:Fr.) Bondartsev</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>749873</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7536110</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112533754</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89718</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1588</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Violmussling</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Trichaptum laricinum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Ryvarden</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Erkinjänkkä (Erkinjänkkä), T lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>749873</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7536110</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Kiruna</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Torne lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Jukkasjärvi</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>13:27</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>per-erik mukka</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
